--- a/Templates/development/8_template_development.xlsx
+++ b/Templates/development/8_template_development.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F5F8BE-2F3E-44A5-B6F8-547ADB4FB27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF64DEE-B513-4A69-B767-BB66FE2EF923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="138">
   <si>
     <t>Table_name</t>
   </si>
@@ -441,6 +441,9 @@
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
   </si>
+  <si>
+    <t>life_stage_general_final</t>
+  </si>
 </sst>
 </file>
 
@@ -848,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB858EB-2AC9-4E6D-994B-94C2B190997A}">
   <dimension ref="A1:BB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +1000,7 @@
         <v>58</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="W1" s="15" t="s">
         <v>62</v>
@@ -1106,9 +1109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z961"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B55"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1917,7 +1920,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>61</v>
